--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C624F01-1BDA-456D-9870-0E6CFD504470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,6 +270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,21 +514,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -527,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -544,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -561,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -578,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -601,22 +636,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -662,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -685,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -708,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -731,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -754,7 +789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -777,7 +812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -800,7 +835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -823,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -846,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
